--- a/data/positive_signals/Indirectly connected (A-X-B) - Rosiglitazone - Acute myocardial infarction.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - Rosiglitazone - Acute myocardial infarction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="151">
   <si>
     <t>pathWeight</t>
   </si>
@@ -164,10 +164,10 @@
     <t>tier12TripleInformation/9/predicateName</t>
   </si>
   <si>
-    <t>395842</t>
-  </si>
-  <si>
-    <t>2-((2-benzoylphenyl)amino)-3-(4-(2-(5-methyl-2-phenyloxazol-4-yl)ethoxy)phenyl)propanoic acid</t>
+    <t>520020</t>
+  </si>
+  <si>
+    <t>roname</t>
   </si>
   <si>
     <t>Chemicals &amp; Drugs</t>
@@ -191,40 +191,40 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>111972821</t>
+    <t>45805202</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>94829830</t>
+    <t>79514454</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>28459444</t>
   </si>
   <si>
     <t>gene product variant causes</t>
   </si>
   <si>
-    <t>94829829</t>
+    <t>28459441</t>
   </si>
   <si>
     <t>gene product is biomarker type</t>
   </si>
   <si>
-    <t>145890255</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
     <t>2791578</t>
   </si>
   <si>
     <t>gcg (homo sapiens)</t>
   </si>
   <si>
-    <t>111969024</t>
-  </si>
-  <si>
-    <t>94944451</t>
+    <t>45801070</t>
+  </si>
+  <si>
+    <t>28592952</t>
   </si>
   <si>
     <t>2792202</t>
@@ -233,10 +233,10 @@
     <t>lcp1 (homo sapiens)</t>
   </si>
   <si>
-    <t>111951311</t>
-  </si>
-  <si>
-    <t>94944617</t>
+    <t>45783913</t>
+  </si>
+  <si>
+    <t>28593223</t>
   </si>
   <si>
     <t>1469040</t>
@@ -245,13 +245,28 @@
     <t>lpl (homo sapiens)</t>
   </si>
   <si>
-    <t>111951309</t>
-  </si>
-  <si>
-    <t>94829419</t>
-  </si>
-  <si>
-    <t>94829418</t>
+    <t>45783911</t>
+  </si>
+  <si>
+    <t>28458898</t>
+  </si>
+  <si>
+    <t>28458899</t>
+  </si>
+  <si>
+    <t>3022191</t>
+  </si>
+  <si>
+    <t>kcnj11 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>23806712</t>
+  </si>
+  <si>
+    <t>45456745</t>
+  </si>
+  <si>
+    <t>28458835</t>
   </si>
   <si>
     <t>1657431</t>
@@ -260,10 +275,196 @@
     <t>ppargc1a (homo sapiens)</t>
   </si>
   <si>
-    <t>111970134</t>
-  </si>
-  <si>
-    <t>94945073</t>
+    <t>45802639</t>
+  </si>
+  <si>
+    <t>28593741</t>
+  </si>
+  <si>
+    <t>1052177</t>
+  </si>
+  <si>
+    <t>ins (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22064647</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>28458812</t>
+  </si>
+  <si>
+    <t>98828</t>
+  </si>
+  <si>
+    <t>shock, cardiogenic</t>
+  </si>
+  <si>
+    <t>16193337</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>112198388</t>
+  </si>
+  <si>
+    <t>does not complicate</t>
+  </si>
+  <si>
+    <t>51736892</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>51333197</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>98404469</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>51375489</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>52291579</t>
+  </si>
+  <si>
+    <t>precedes</t>
+  </si>
+  <si>
+    <t>80199438</t>
+  </si>
+  <si>
+    <t>54347265</t>
+  </si>
+  <si>
+    <t>51375275</t>
+  </si>
+  <si>
+    <t>56368429</t>
+  </si>
+  <si>
+    <t>836694</t>
+  </si>
+  <si>
+    <t>vasculitis</t>
+  </si>
+  <si>
+    <t>16193391</t>
+  </si>
+  <si>
+    <t>69646535</t>
+  </si>
+  <si>
+    <t>5102415</t>
+  </si>
+  <si>
+    <t>anti-arrhythmia agents</t>
+  </si>
+  <si>
+    <t>39412283</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>65030994</t>
+  </si>
+  <si>
+    <t>51815886</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>67444357</t>
+  </si>
+  <si>
+    <t>83477750</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>836328</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>39412286</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>58036784</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>79231989</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>39412282</t>
+  </si>
+  <si>
+    <t>is ingredient of</t>
+  </si>
+  <si>
+    <t>51726685</t>
+  </si>
+  <si>
+    <t>63644540</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>71282267</t>
+  </si>
+  <si>
+    <t>60756292</t>
+  </si>
+  <si>
+    <t>100002469</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>87619179</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>88147034</t>
   </si>
 </sst>
 </file>
@@ -563,7 +764,7 @@
         <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +808,7 @@
         <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -651,7 +852,7 @@
         <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
         <v>79</v>
@@ -662,7 +863,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45.0</v>
+        <v>59.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -695,13 +896,441 @@
         <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
         <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" t="s">
+        <v>145</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>146</v>
+      </c>
+      <c r="V13" t="s">
+        <v>147</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
